--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>607089.7463359656</v>
+        <v>619765.147506469</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16722200.63474372</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>967451.7036114043</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7200896.675406665</v>
+        <v>7649269.627485422</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +664,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>337.4437351164538</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>212.5140231178459</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>64.90507698037669</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>198.8096778684291</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>117.3664039290117</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -905,7 +907,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>53.33388379268035</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>144.1266108076349</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>120.1838601509836</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1139,10 +1141,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>124.7668265422409</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>157.7922224418589</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>135.1077460700519</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>73.0151467619348</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1376,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>394.066786369047</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>220.9154882489131</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1531,16 +1533,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>109.1426757626848</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>247.778571077114</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>376.0713987766823</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170459</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -2002,13 +2004,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>39.5975448024402</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>108.1177056177444</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2476,25 +2478,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>147.9678216489119</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2722,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>15.57230972412397</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>153.2006427344284</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3250,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>34.71811217257828</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3427,16 +3429,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>119.9348501475796</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3484,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>214.5134539078253</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3512,7 +3514,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3743,22 +3745,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>220.9154882489132</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>62.41824479531079</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U43" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>215.7254267467951</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3986,13 +3988,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>218.0066200122063</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4144,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>39.88277234054704</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>210.1409105078477</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4195,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2480.967111740901</v>
+        <v>893.999668625045</v>
       </c>
       <c r="C2" t="n">
-        <v>2042.824638924325</v>
+        <v>455.8571958084684</v>
       </c>
       <c r="D2" t="n">
-        <v>1606.914854098769</v>
+        <v>423.987815023317</v>
       </c>
       <c r="E2" t="n">
-        <v>1173.140109257064</v>
+        <v>394.2534742220162</v>
       </c>
       <c r="F2" t="n">
-        <v>745.2726796662719</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
-        <v>343.8748482895357</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L2" t="n">
-        <v>1344.116250983141</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M2" t="n">
-        <v>1344.116250983141</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N2" t="n">
-        <v>1344.116250983141</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2737.234686637598</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U2" t="n">
-        <v>2737.234686637598</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V2" t="n">
-        <v>2737.234686637598</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W2" t="n">
-        <v>2522.574057225632</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X2" t="n">
-        <v>2507.471997845347</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y2" t="n">
-        <v>2503.226278185405</v>
+        <v>916.2588350695488</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1580.166670150082</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>1473.710208986724</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.619920133277</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E3" t="n">
-        <v>1284.499505460231</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F3" t="n">
-        <v>1201.115667076393</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>1115.730577342577</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>1073.994925158789</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I3" t="n">
-        <v>1073.994925158789</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>1073.994925158789</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>1073.994925158789</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="L3" t="n">
-        <v>1073.994925158789</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="M3" t="n">
-        <v>1401.857384968378</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="N3" t="n">
-        <v>1401.857384968378</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="O3" t="n">
-        <v>1401.857384968378</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="P3" t="n">
-        <v>2079.322969911183</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>2620.061908543259</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>2673.779249085981</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>2543.600605416583</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>2367.264058416551</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>2168.14654047855</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W3" t="n">
-        <v>1982.823786211744</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X3" t="n">
-        <v>1827.956350450624</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y3" t="n">
-        <v>1701.470571229845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>764.2385311503645</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C4" t="n">
-        <v>591.6768196335894</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>425.7988268351121</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>360.2381430165498</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>360.2381430165498</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>194.6468680423774</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>54.74469373275195</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2512.162934933549</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2266.283488512004</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>1987.850487765109</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1700.894979635539</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1428.868575221831</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1183.476820555243</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>956.0571498693516</v>
+        <v>959.897665623735</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1790.439125807381</v>
+        <v>1415.517618276922</v>
       </c>
       <c r="C5" t="n">
-        <v>1352.296652990805</v>
+        <v>977.3751454603453</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3868681652491</v>
+        <v>541.4653606347897</v>
       </c>
       <c r="E5" t="n">
-        <v>482.6121233235442</v>
+        <v>107.6906157930849</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>535.6838670561251</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>1213.149451998931</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>1890.615036941736</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>2568.080621884541</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>2568.080621884541</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2568.080621884541</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>2736.419636089035</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>2317.277172668346</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y5" t="n">
-        <v>1908.991048967999</v>
+        <v>1841.81718876183</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1580.166670150082</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>1473.710208986724</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.619920133277</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>1284.499505460231</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>1201.115667076393</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>1115.730577342577</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>1073.994925158789</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>1100.058598319247</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>1424.616923285459</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1424.616923285459</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1424.616923285459</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1424.616923285459</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1424.616923285459</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>2102.082508228264</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>2102.082508228264</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>2620.061908543259</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>2737.234686637598</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>2673.779249085981</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>2543.600605416583</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>2367.264058416551</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>2168.14654047855</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>1982.823786211744</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>1827.956350450624</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>1701.470571229845</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>764.2385311503645</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C7" t="n">
-        <v>764.2385311503645</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D7" t="n">
-        <v>764.2385311503645</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E7" t="n">
-        <v>594.4805274011017</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F7" t="n">
-        <v>448.8980922418745</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G7" t="n">
-        <v>283.3068172677021</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2512.162934933549</v>
+        <v>2548.662987895081</v>
       </c>
       <c r="T7" t="n">
-        <v>2266.283488512004</v>
+        <v>2302.783541473536</v>
       </c>
       <c r="U7" t="n">
-        <v>1987.850487765109</v>
+        <v>2024.350540726642</v>
       </c>
       <c r="V7" t="n">
-        <v>1700.894979635539</v>
+        <v>1737.395032597072</v>
       </c>
       <c r="W7" t="n">
-        <v>1428.868575221831</v>
+        <v>1465.368628183364</v>
       </c>
       <c r="X7" t="n">
-        <v>1183.476820555243</v>
+        <v>1219.976873516776</v>
       </c>
       <c r="Y7" t="n">
-        <v>956.0571498693516</v>
+        <v>992.5572028308845</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1078.651074442687</v>
+        <v>1820.534998878308</v>
       </c>
       <c r="C8" t="n">
-        <v>640.5086016261107</v>
+        <v>1382.392526061732</v>
       </c>
       <c r="D8" t="n">
-        <v>204.5988168005552</v>
+        <v>946.4827412361763</v>
       </c>
       <c r="E8" t="n">
-        <v>78.57171928314017</v>
+        <v>512.7079963944714</v>
       </c>
       <c r="F8" t="n">
-        <v>54.74469373275195</v>
+        <v>84.84056680367917</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>84.84056680367917</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>84.84056680367917</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K8" t="n">
-        <v>1167.464966128475</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L8" t="n">
-        <v>1167.464966128475</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="M8" t="n">
-        <v>1167.464966128475</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="N8" t="n">
-        <v>1167.464966128475</v>
+        <v>1697.046479425604</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2677.22614599591</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>3505.536020829307</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>4052.034806787902</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.188871540959</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.188871540959</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>4001.121644413997</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3841.735561139392</v>
       </c>
       <c r="V8" t="n">
-        <v>2737.234686637598</v>
+        <v>3479.118611073219</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.379232048631</v>
+        <v>3074.263156484252</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.236768627942</v>
+        <v>2655.120693063563</v>
       </c>
       <c r="Y8" t="n">
-        <v>1504.950644927595</v>
+        <v>2246.834569363216</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>590.5955224221119</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>484.1390612587542</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>211.5445193484228</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80836689320955</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J9" t="n">
-        <v>80.80836689320955</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="K9" t="n">
-        <v>758.2739518360149</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L9" t="n">
-        <v>758.2739518360149</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M9" t="n">
-        <v>758.2739518360149</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N9" t="n">
-        <v>1435.73953677882</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O9" t="n">
-        <v>1435.73953677882</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P9" t="n">
-        <v>1435.73953677882</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q9" t="n">
-        <v>1717.984455211561</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>993.2526384837743</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>838.3852027226543</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>711.899423501875</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>934.6393285747235</v>
+        <v>931.7411622558066</v>
       </c>
       <c r="C10" t="n">
-        <v>762.0776170579485</v>
+        <v>759.1794507390315</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6051462801182</v>
+        <v>593.3014579405542</v>
       </c>
       <c r="E10" t="n">
-        <v>625.6051462801182</v>
+        <v>423.5434541912915</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>246.8364001530477</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>173.0837266561438</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>173.0837266561438</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>171.003462595509</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="S10" t="n">
-        <v>2490.74511363892</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="T10" t="n">
-        <v>2244.865667217376</v>
+        <v>2433.786119617446</v>
       </c>
       <c r="U10" t="n">
-        <v>1966.432666470481</v>
+        <v>2155.353118870551</v>
       </c>
       <c r="V10" t="n">
-        <v>1679.477158340911</v>
+        <v>1868.397610740981</v>
       </c>
       <c r="W10" t="n">
-        <v>1407.450753927203</v>
+        <v>1596.371206327273</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.058999260615</v>
+        <v>1350.979451660686</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.6393285747235</v>
+        <v>1123.559780974794</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>492.8871665493286</v>
+        <v>2045.333029354114</v>
       </c>
       <c r="C11" t="n">
-        <v>54.74469373275195</v>
+        <v>1607.190556537537</v>
       </c>
       <c r="D11" t="n">
-        <v>54.74469373275195</v>
+        <v>1607.190556537537</v>
       </c>
       <c r="E11" t="n">
-        <v>54.74469373275195</v>
+        <v>1173.415811695832</v>
       </c>
       <c r="F11" t="n">
-        <v>54.74469373275195</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>373.9707213604629</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>84.84056680367917</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K11" t="n">
-        <v>1167.464966128475</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L11" t="n">
-        <v>1167.464966128475</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="M11" t="n">
-        <v>1167.464966128475</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="N11" t="n">
-        <v>1167.464966128475</v>
+        <v>1697.046479425604</v>
       </c>
       <c r="O11" t="n">
-        <v>1513.270315736198</v>
+        <v>2677.22614599591</v>
       </c>
       <c r="P11" t="n">
-        <v>2190.735900679003</v>
+        <v>3505.536020829307</v>
       </c>
       <c r="Q11" t="n">
-        <v>2737.234686637598</v>
+        <v>4052.034806787902</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.188871540959</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>4137.536997724796</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3917.469770597834</v>
       </c>
       <c r="U11" t="n">
-        <v>2514.087728810413</v>
+        <v>3658.247467914851</v>
       </c>
       <c r="V11" t="n">
-        <v>2151.470778744239</v>
+        <v>3295.630517848677</v>
       </c>
       <c r="W11" t="n">
-        <v>1746.615324155272</v>
+        <v>2890.775063259711</v>
       </c>
       <c r="X11" t="n">
-        <v>1327.472860734583</v>
+        <v>2471.632599839022</v>
       </c>
       <c r="Y11" t="n">
-        <v>919.1867370342364</v>
+        <v>2471.632599839022</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>590.5955224221119</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>484.1390612587542</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>211.5445193484228</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J12" t="n">
-        <v>379.3030186989643</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="K12" t="n">
-        <v>1056.76860364177</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L12" t="n">
-        <v>1056.76860364177</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M12" t="n">
-        <v>1056.76860364177</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N12" t="n">
-        <v>1056.76860364177</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O12" t="n">
-        <v>1056.76860364177</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P12" t="n">
-        <v>1177.245516579485</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q12" t="n">
-        <v>1717.984455211561</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>993.2526384837743</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>838.3852027226543</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>711.899423501875</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1133.802854344633</v>
+        <v>772.4997935538031</v>
       </c>
       <c r="C13" t="n">
-        <v>961.2411428278582</v>
+        <v>599.938082037028</v>
       </c>
       <c r="D13" t="n">
-        <v>795.3631500293809</v>
+        <v>489.6929550040131</v>
       </c>
       <c r="E13" t="n">
-        <v>625.6051462801182</v>
+        <v>489.6929550040131</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8980922418745</v>
+        <v>312.9859009657693</v>
       </c>
       <c r="G13" t="n">
-        <v>283.3068172677021</v>
+        <v>312.9859009657693</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>173.0837266561438</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>171.003462595509</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2520.424197336987</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2274.544750915442</v>
       </c>
       <c r="U13" t="n">
-        <v>2357.414810959378</v>
+        <v>1996.111750168548</v>
       </c>
       <c r="V13" t="n">
-        <v>2070.459302829808</v>
+        <v>1709.156242038978</v>
       </c>
       <c r="W13" t="n">
-        <v>1798.4328984161</v>
+        <v>1437.12983762527</v>
       </c>
       <c r="X13" t="n">
-        <v>1553.041143749512</v>
+        <v>1191.738082958682</v>
       </c>
       <c r="Y13" t="n">
-        <v>1325.62147306362</v>
+        <v>964.3184122727903</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1142.333694861421</v>
+        <v>2199.988309279875</v>
       </c>
       <c r="C14" t="n">
-        <v>1142.333694861421</v>
+        <v>1761.845836463298</v>
       </c>
       <c r="D14" t="n">
-        <v>706.4239100358659</v>
+        <v>1325.936051637743</v>
       </c>
       <c r="E14" t="n">
-        <v>706.4239100358659</v>
+        <v>892.1613067960379</v>
       </c>
       <c r="F14" t="n">
-        <v>456.1425251094881</v>
+        <v>464.2938772052457</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L14" t="n">
-        <v>1167.464966128475</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.464966128475</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="N14" t="n">
-        <v>1167.464966128475</v>
+        <v>1697.046479425604</v>
       </c>
       <c r="O14" t="n">
-        <v>1344.116250983141</v>
+        <v>2677.22614599591</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>3505.536020829307</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>4052.034806787902</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.188871540959</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.188871540959</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.188871540959</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.188871540959</v>
       </c>
       <c r="V14" t="n">
-        <v>2374.617736571424</v>
+        <v>3858.571921474785</v>
       </c>
       <c r="W14" t="n">
-        <v>1969.762281982458</v>
+        <v>3453.716466885819</v>
       </c>
       <c r="X14" t="n">
-        <v>1550.619818561768</v>
+        <v>3034.574003465129</v>
       </c>
       <c r="Y14" t="n">
-        <v>1142.333694861421</v>
+        <v>2626.287879764783</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>590.5955224221119</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>484.1390612587542</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>211.5445193484228</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J15" t="n">
-        <v>80.80836689320955</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="K15" t="n">
-        <v>80.80836689320955</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="L15" t="n">
-        <v>363.05328532595</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="M15" t="n">
-        <v>1040.518870268755</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="N15" t="n">
-        <v>1717.984455211561</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="O15" t="n">
-        <v>1717.984455211561</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="P15" t="n">
-        <v>1717.984455211561</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q15" t="n">
-        <v>1717.984455211561</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>993.2526384837743</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>838.3852027226543</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>711.899423501875</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>793.9176148484312</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>621.3559033316561</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>455.4779105331788</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>285.7199067839161</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>109.0128527456723</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>171.003462595509</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2541.842018631615</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2295.96257221007</v>
       </c>
       <c r="U16" t="n">
-        <v>2357.414810959378</v>
+        <v>2017.529571463176</v>
       </c>
       <c r="V16" t="n">
-        <v>2070.459302829808</v>
+        <v>1730.574063333606</v>
       </c>
       <c r="W16" t="n">
-        <v>1798.4328984161</v>
+        <v>1458.547658919898</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.041143749512</v>
+        <v>1213.15590425331</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.62147306362</v>
+        <v>985.7362335674184</v>
       </c>
     </row>
     <row r="17">
@@ -5595,25 +5597,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E19" t="n">
         <v>584.4613435928212</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2594.704009018975</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5753,13 +5755,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>1612.575493976557</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5829,28 +5831,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>645.8766848899141</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>852.6195887352237</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2009.667423945775</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>3135.398407382222</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4115.578073952528</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>242.1630145804051</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,19 +6472,19 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>884.5847208382039</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>718.7067280397266</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>548.9487242904638</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>372.24167025222</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>206.6503952780477</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,16 +6703,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>1286.300469346935</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1286.300469346935</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2443.348304557486</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
         <v>3569.079287993933</v>
@@ -6777,28 +6779,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6883,19 +6885,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2559.679081471576</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
         <v>1600.55729028754</v>
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6953,10 +6955,10 @@
         <v>4117.581748488571</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785924</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>845.683004334921</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>673.1212928181459</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>673.1212928181459</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G37" t="n">
         <v>330.8229638057298</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1510.313048406387</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1264.9212937398</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1037.501623053908</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7360,22 +7362,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>716.0341243765137</v>
+        <v>1794.065400664252</v>
       </c>
       <c r="C41" t="n">
-        <v>277.891651559937</v>
+        <v>1355.922927847676</v>
       </c>
       <c r="D41" t="n">
-        <v>277.891651559937</v>
+        <v>920.0131430221202</v>
       </c>
       <c r="E41" t="n">
-        <v>54.74469373275195</v>
+        <v>486.2383981804153</v>
       </c>
       <c r="F41" t="n">
-        <v>54.74469373275195</v>
+        <v>486.2383981804153</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>84.84056680367917</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>84.84056680367917</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L41" t="n">
-        <v>54.74469373275195</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="M41" t="n">
-        <v>54.74469373275195</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="N41" t="n">
-        <v>666.6506660403358</v>
+        <v>1697.046479425604</v>
       </c>
       <c r="O41" t="n">
-        <v>1344.116250983141</v>
+        <v>2677.22614599591</v>
       </c>
       <c r="P41" t="n">
-        <v>2021.581835925947</v>
+        <v>3505.536020829307</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.080621884541</v>
+        <v>4052.034806787902</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.188871540959</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>4137.536997724796</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>4074.48826560832</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>3815.265962925337</v>
       </c>
       <c r="V41" t="n">
-        <v>2374.617736571424</v>
+        <v>3452.649012859163</v>
       </c>
       <c r="W41" t="n">
-        <v>1969.762281982458</v>
+        <v>3047.793558270196</v>
       </c>
       <c r="X41" t="n">
-        <v>1550.619818561768</v>
+        <v>2628.651094849507</v>
       </c>
       <c r="Y41" t="n">
-        <v>1142.333694861421</v>
+        <v>2220.36497114916</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>590.5955224221119</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>484.1390612587542</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>211.5445193484228</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>993.2526384837743</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>838.3852027226543</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>711.899423501875</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1133.802854344633</v>
+        <v>2683.587422250041</v>
       </c>
       <c r="C43" t="n">
-        <v>961.2411428278582</v>
+        <v>2511.025710733265</v>
       </c>
       <c r="D43" t="n">
-        <v>795.3631500293809</v>
+        <v>2345.147717934788</v>
       </c>
       <c r="E43" t="n">
-        <v>625.6051462801182</v>
+        <v>2175.389714185525</v>
       </c>
       <c r="F43" t="n">
-        <v>448.8980922418745</v>
+        <v>1998.682660147281</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>1833.091385173109</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>1693.189210863484</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>1604.529261638159</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>1691.108946802849</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>1965.867401373984</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>2384.077283141945</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>2843.561150322858</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>3285.819953480503</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>3705.489202706284</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>4052.996096676626</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>4221.188871540959</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>4221.188871540959</v>
       </c>
       <c r="S43" t="n">
-        <v>2671.404303635552</v>
+        <v>4221.188871540959</v>
       </c>
       <c r="T43" t="n">
-        <v>2425.524857214007</v>
+        <v>4185.632379611679</v>
       </c>
       <c r="U43" t="n">
-        <v>2357.414810959378</v>
+        <v>3907.199378864785</v>
       </c>
       <c r="V43" t="n">
-        <v>2070.459302829808</v>
+        <v>3620.243870735215</v>
       </c>
       <c r="W43" t="n">
-        <v>1798.4328984161</v>
+        <v>3348.217466321507</v>
       </c>
       <c r="X43" t="n">
-        <v>1553.041143749512</v>
+        <v>3102.825711654919</v>
       </c>
       <c r="Y43" t="n">
-        <v>1325.62147306362</v>
+        <v>2875.406040969028</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1142.333694861421</v>
+        <v>2510.646195438968</v>
       </c>
       <c r="C44" t="n">
-        <v>924.4292234000122</v>
+        <v>2072.503722622392</v>
       </c>
       <c r="D44" t="n">
-        <v>488.5194385744568</v>
+        <v>1636.593937796836</v>
       </c>
       <c r="E44" t="n">
-        <v>54.74469373275195</v>
+        <v>1202.819192955131</v>
       </c>
       <c r="F44" t="n">
-        <v>54.74469373275195</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="G44" t="n">
-        <v>54.74469373275195</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K44" t="n">
-        <v>666.6506660403358</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="L44" t="n">
-        <v>666.6506660403358</v>
+        <v>1303.390505294788</v>
       </c>
       <c r="M44" t="n">
-        <v>1344.116250983141</v>
+        <v>2348.134751001176</v>
       </c>
       <c r="N44" t="n">
-        <v>1344.116250983141</v>
+        <v>3392.878996707563</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>3392.878996707563</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>4221.188871540959</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>4221.188871540959</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4221.188871540959</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4137.536997724796</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3917.469770597834</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>3697.261063514798</v>
       </c>
       <c r="V44" t="n">
-        <v>2374.617736571424</v>
+        <v>3334.644113448624</v>
       </c>
       <c r="W44" t="n">
-        <v>1969.762281982458</v>
+        <v>2929.788658859658</v>
       </c>
       <c r="X44" t="n">
-        <v>1550.619818561768</v>
+        <v>2510.646195438968</v>
       </c>
       <c r="Y44" t="n">
-        <v>1142.333694861421</v>
+        <v>2510.646195438968</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>590.5955224221119</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>484.1390612587542</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>211.5445193484228</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>126.1594296146067</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>435.0457755574891</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>993.2526384837743</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>838.3852027226543</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>711.899423501875</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1133.802854344633</v>
+        <v>986.7748840044567</v>
       </c>
       <c r="C46" t="n">
-        <v>961.2411428278582</v>
+        <v>814.2131724876816</v>
       </c>
       <c r="D46" t="n">
-        <v>795.3631500293809</v>
+        <v>648.3351796892043</v>
       </c>
       <c r="E46" t="n">
-        <v>625.6051462801182</v>
+        <v>478.5771759399416</v>
       </c>
       <c r="F46" t="n">
-        <v>448.8980922418745</v>
+        <v>478.5771759399416</v>
       </c>
       <c r="G46" t="n">
-        <v>283.3068172677021</v>
+        <v>312.9859009657693</v>
       </c>
       <c r="H46" t="n">
-        <v>143.4046429580766</v>
+        <v>173.0837266561438</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>84.42377743081917</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>171.003462595509</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R46" t="n">
-        <v>2649.986482340924</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S46" t="n">
-        <v>2609.700853714109</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="T46" t="n">
-        <v>2363.821407292564</v>
+        <v>2488.819841366096</v>
       </c>
       <c r="U46" t="n">
-        <v>2085.388406545669</v>
+        <v>2210.386840619201</v>
       </c>
       <c r="V46" t="n">
-        <v>1798.4328984161</v>
+        <v>1923.431332489632</v>
       </c>
       <c r="W46" t="n">
-        <v>1798.4328984161</v>
+        <v>1651.404928075923</v>
       </c>
       <c r="X46" t="n">
-        <v>1553.041143749512</v>
+        <v>1406.013173409336</v>
       </c>
       <c r="Y46" t="n">
-        <v>1325.62147306362</v>
+        <v>1178.593502723444</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>331.1742018278671</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593994</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8216,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>46.14594532369222</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>523.2115154696908</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8453,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>346.4825480643326</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8529,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>285.0958772047882</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>346.4825480643326</v>
       </c>
       <c r="O11" t="n">
-        <v>349.2983329370936</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593994</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>121.6938514522378</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,13 +8938,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>346.4825480643326</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9003,31 +9005,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>285.0958772047883</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,16 +9403,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1859873202736</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9477,16 +9479,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.512272410379</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>757.9381297620648</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,19 +10351,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10425,19 +10427,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>834.6527275730841</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10838,13 +10840,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>618.0868407147311</v>
+        <v>346.4825480643326</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11297,28 +11299,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>791.6283236475265</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23264,19 +23266,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>29.52196892583731</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>35.71459140724022</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23419,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>55.07653710780777</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>175.8101842177703</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>21.31245428628648</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>131.2385495991671</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>175.9682474305295</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>26.97216184894944</v>
       </c>
       <c r="G25" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>122.9308428424053</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>208.2197249473434</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>44.28436272291295</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>54.79268646174609</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>208.5215091443746</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>155.448310060381</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U43" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>218.0356213416158</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>38.623459643947</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>117.7661826744363</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>33.27974144948155</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>673766.964502492</v>
+        <v>673105.3359056532</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>673766.964502492</v>
+        <v>673105.3359056532</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>673766.964502492</v>
+        <v>688383.1637519795</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>447264.1016342602</v>
+        <v>596538.4675973214</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>447264.1016342601</v>
+        <v>596538.4675973214</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>686252.0272599391</v>
+        <v>686252.0272599392</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>686252.0272599391</v>
+        <v>686252.0272599392</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>686252.0272599391</v>
+        <v>686252.0272599394</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>686252.0272599391</v>
+        <v>686252.0272599392</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>686252.0272599392</v>
+        <v>686252.0272599391</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>447264.1016342602</v>
+        <v>596538.4675973214</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>447264.1016342602</v>
+        <v>596538.4675973215</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308284.7089369848</v>
+        <v>308284.7089369849</v>
       </c>
       <c r="C2" t="n">
-        <v>308284.7089369849</v>
+        <v>308284.7089369847</v>
       </c>
       <c r="D2" t="n">
         <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
-        <v>197442.8824269991</v>
+        <v>263339.4320953437</v>
       </c>
       <c r="F2" t="n">
-        <v>197442.8824269991</v>
+        <v>263339.4320953437</v>
       </c>
       <c r="G2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="H2" t="n">
         <v>302943.1108789776</v>
@@ -26347,13 +26349,13 @@
         <v>302943.1108789775</v>
       </c>
       <c r="N2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="O2" t="n">
-        <v>197442.8824269991</v>
+        <v>263339.4320953437</v>
       </c>
       <c r="P2" t="n">
-        <v>197442.8824269991</v>
+        <v>263339.4320953437</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>120456.7261630934</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>61110.89210613199</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>98144.13701620407</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154345.2424604725</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="C4" t="n">
-        <v>154345.2424604725</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>154345.2424604725</v>
+        <v>103725.390980546</v>
       </c>
       <c r="E4" t="n">
-        <v>44319.38999483707</v>
+        <v>59110.98363531847</v>
       </c>
       <c r="F4" t="n">
-        <v>44319.38999483707</v>
+        <v>59110.98363531847</v>
       </c>
       <c r="G4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="H4" t="n">
         <v>68000.69828933282</v>
-      </c>
-      <c r="H4" t="n">
-        <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933281</v>
@@ -26442,22 +26444,22 @@
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="L4" t="n">
         <v>68000.69828933279</v>
-      </c>
-      <c r="L4" t="n">
-        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
-        <v>44319.38999483707</v>
+        <v>59110.98363531847</v>
       </c>
       <c r="P4" t="n">
-        <v>44319.38999483707</v>
+        <v>59110.98363531849</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>97789.67084742256</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>64162.07084742257</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>64162.07084742257</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>64162.07084742257</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>64162.07084742257</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-150621.6757328921</v>
+        <v>-146264.1554614915</v>
       </c>
       <c r="C6" t="n">
-        <v>78705.89923962095</v>
+        <v>77435.54312255324</v>
       </c>
       <c r="D6" t="n">
-        <v>78705.89923962083</v>
+        <v>-13687.07905407721</v>
       </c>
       <c r="E6" t="n">
-        <v>111517.5251952706</v>
+        <v>140066.3776126027</v>
       </c>
       <c r="F6" t="n">
-        <v>111517.5251952706</v>
+        <v>140066.3776126027</v>
       </c>
       <c r="G6" t="n">
-        <v>-5569.113814589218</v>
+        <v>96113.2818777202</v>
       </c>
       <c r="H6" t="n">
-        <v>157224.1739838523</v>
+        <v>157224.1739838522</v>
       </c>
       <c r="I6" t="n">
         <v>157224.1739838522</v>
       </c>
       <c r="J6" t="n">
-        <v>-21821.08410379973</v>
+        <v>-17427.17473385396</v>
       </c>
       <c r="K6" t="n">
         <v>157224.1739838522</v>
       </c>
       <c r="L6" t="n">
+        <v>59080.03696764814</v>
+      </c>
+      <c r="M6" t="n">
         <v>157224.1739838522</v>
-      </c>
-      <c r="M6" t="n">
-        <v>157224.1739838521</v>
       </c>
       <c r="N6" t="n">
         <v>157224.1739838522</v>
       </c>
       <c r="O6" t="n">
-        <v>111517.5251952706</v>
+        <v>140066.3776126026</v>
       </c>
       <c r="P6" t="n">
-        <v>111517.5251952706</v>
+        <v>140066.3776126027</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>387.7820112773827</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>222.9632854995056</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773827</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773827</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>222.9632854995056</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86.14502017843057</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>188.2928769252311</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>103.1553467313934</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>26.3357961106037</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>304.670170851047</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>370.254871502204</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>30.8133726902264</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>37.4650948639997</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27859,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>304.6701708510469</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>98.83785721429436</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>29.11146680044058</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>90.9202154624958</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -34699,10 +34701,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L2" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>331.1742018278671</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593994</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34869,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>46.14594532369222</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>523.2115154696908</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35173,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>346.4825480643326</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35249,10 +35251,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>684.3086716593995</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,10 +35272,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>285.0958772047882</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>346.4825480643326</v>
       </c>
       <c r="O11" t="n">
-        <v>349.2983329370936</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593994</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>121.6938514522378</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,7 +35649,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,13 +35658,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>346.4825480643326</v>
       </c>
       <c r="O14" t="n">
-        <v>178.4356412673392</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35723,31 +35725,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>285.0958772047883</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35963,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,16 +36123,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1859873202736</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36197,16 +36199,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.512272410379</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>757.9381297620648</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36610,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36838,22 +36840,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37069,19 +37071,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37145,19 +37147,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,13 +37323,13 @@
         <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
-        <v>834.6527275730841</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37558,13 +37560,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37789,13 +37791,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>618.0868407147311</v>
+        <v>346.4825480643326</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>446.726063795601</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>791.6283236475265</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593995</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>619765.147506469</v>
+        <v>619079.214729421</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>967451.7036114043</v>
+        <v>967451.7036114027</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7649269.627485422</v>
+        <v>7649269.627485423</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>337.4437351164538</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -727,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>114.2221228725656</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -828,13 +828,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481245</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.8096778684291</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>199.9220568710097</v>
       </c>
       <c r="F5" t="n">
-        <v>53.33388379268035</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>120.1838601509836</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>198.8096778684291</v>
       </c>
     </row>
     <row r="8">
@@ -1147,10 +1147,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>36.58379486640253</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>157.7922224418589</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1305,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>73.0151467619348</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>319.954699442435</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>394.066786369047</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1429,7 +1429,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1533,22 +1533,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>109.1426757626848</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225732</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1621,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>376.0713987766823</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>272.8062266128868</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170459</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2004,13 +2004,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>39.5975448024402</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2067,10 +2067,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>189.9879808696992</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2298,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>108.1177056177444</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2478,25 +2478,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>147.9678216489119</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>15.57230972412397</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>22.2853439284767</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3429,16 +3429,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>119.9348501475796</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>57.17380082342405</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3748,10 +3748,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3793,7 +3793,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>62.41824479531079</v>
+        <v>68.26648689371615</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>218.0066200122063</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>36.6937379613483</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950061</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>210.1409105078477</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>893.999668625045</v>
+        <v>866.5213804116895</v>
       </c>
       <c r="C2" t="n">
-        <v>455.8571958084684</v>
+        <v>832.4193116355168</v>
       </c>
       <c r="D2" t="n">
-        <v>423.987815023317</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E2" t="n">
-        <v>394.2534742220162</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.119422805321</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739147</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.647018150181</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X2" t="n">
-        <v>920.5045547294914</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y2" t="n">
-        <v>916.2588350695488</v>
+        <v>888.7805468561933</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1357.443063079289</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>959.897665623735</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>959.897665623735</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1415.517618276922</v>
+        <v>749.1815672676233</v>
       </c>
       <c r="C5" t="n">
-        <v>977.3751454603453</v>
+        <v>715.0794984914507</v>
       </c>
       <c r="D5" t="n">
-        <v>541.4653606347897</v>
+        <v>683.2101177062993</v>
       </c>
       <c r="E5" t="n">
-        <v>107.6906157930849</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4585,34 +4585,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X5" t="n">
-        <v>2250.103312462176</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y5" t="n">
-        <v>1841.81718876183</v>
+        <v>771.4407337121271</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>992.5572028308845</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C7" t="n">
-        <v>819.9954913141095</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>654.1174985156322</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>484.3594947663694</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>307.6524407281256</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2548.662987895081</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2302.783541473536</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2024.350540726642</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1737.395032597072</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1465.368628183364</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1219.976873516776</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>992.5572028308845</v>
+        <v>959.897665623735</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1820.534998878308</v>
+        <v>2258.886158402926</v>
       </c>
       <c r="C8" t="n">
-        <v>1382.392526061732</v>
+        <v>1820.743685586349</v>
       </c>
       <c r="D8" t="n">
-        <v>946.4827412361763</v>
+        <v>1384.833900760794</v>
       </c>
       <c r="E8" t="n">
-        <v>512.7079963944714</v>
+        <v>951.0591559190889</v>
       </c>
       <c r="F8" t="n">
-        <v>84.84056680367917</v>
+        <v>523.1917263282967</v>
       </c>
       <c r="G8" t="n">
-        <v>84.84056680367917</v>
+        <v>121.7938949515606</v>
       </c>
       <c r="H8" t="n">
-        <v>84.84056680367917</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I8" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J8" t="n">
         <v>519.6784648837371</v>
@@ -4816,40 +4816,40 @@
         <v>1354.028756841915</v>
       </c>
       <c r="N8" t="n">
-        <v>1697.046479425604</v>
+        <v>1697.046479425606</v>
       </c>
       <c r="O8" t="n">
-        <v>2677.22614599591</v>
+        <v>2677.226145995912</v>
       </c>
       <c r="P8" t="n">
-        <v>3505.536020829307</v>
+        <v>3505.536020829309</v>
       </c>
       <c r="Q8" t="n">
-        <v>4052.034806787902</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R8" t="n">
-        <v>4221.188871540959</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S8" t="n">
-        <v>4221.188871540959</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T8" t="n">
-        <v>4001.121644413997</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="U8" t="n">
-        <v>3841.735561139392</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="V8" t="n">
-        <v>3479.118611073219</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="W8" t="n">
-        <v>3074.263156484252</v>
+        <v>3512.61431600887</v>
       </c>
       <c r="X8" t="n">
-        <v>2655.120693063563</v>
+        <v>3093.47185258818</v>
       </c>
       <c r="Y8" t="n">
-        <v>2246.834569363216</v>
+        <v>2685.185728887834</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>590.5955224221119</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C9" t="n">
-        <v>484.1390612587542</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D9" t="n">
         <v>389.0487724053075</v>
@@ -4871,19 +4871,19 @@
         <v>294.9283577322612</v>
       </c>
       <c r="F9" t="n">
-        <v>211.5445193484228</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G9" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H9" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I9" t="n">
         <v>110.4874505912768</v>
       </c>
       <c r="J9" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K9" t="n">
         <v>1089.751822183213</v>
@@ -4922,13 +4922,13 @@
         <v>1178.57539275058</v>
       </c>
       <c r="W9" t="n">
-        <v>993.2526384837743</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X9" t="n">
-        <v>838.3852027226543</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y9" t="n">
-        <v>711.899423501875</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>931.7411622558066</v>
+        <v>1163.481938042701</v>
       </c>
       <c r="C10" t="n">
-        <v>759.1794507390315</v>
+        <v>990.9202265259256</v>
       </c>
       <c r="D10" t="n">
-        <v>593.3014579405542</v>
+        <v>825.0422337274483</v>
       </c>
       <c r="E10" t="n">
-        <v>423.5434541912915</v>
+        <v>655.2842299781855</v>
       </c>
       <c r="F10" t="n">
-        <v>246.8364001530477</v>
+        <v>478.5771759399417</v>
       </c>
       <c r="G10" t="n">
-        <v>173.0837266561438</v>
+        <v>312.9859009657694</v>
       </c>
       <c r="H10" t="n">
-        <v>173.0837266561438</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I10" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J10" t="n">
-        <v>171.003462595509</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K10" t="n">
         <v>445.7619171666447</v>
@@ -4992,22 +4992,22 @@
         <v>2679.665566038991</v>
       </c>
       <c r="T10" t="n">
-        <v>2433.786119617446</v>
+        <v>2665.52689540434</v>
       </c>
       <c r="U10" t="n">
-        <v>2155.353118870551</v>
+        <v>2387.093894657445</v>
       </c>
       <c r="V10" t="n">
-        <v>1868.397610740981</v>
+        <v>2100.138386527876</v>
       </c>
       <c r="W10" t="n">
-        <v>1596.371206327273</v>
+        <v>1828.111982114167</v>
       </c>
       <c r="X10" t="n">
-        <v>1350.979451660686</v>
+        <v>1582.72022744758</v>
       </c>
       <c r="Y10" t="n">
-        <v>1123.559780974794</v>
+        <v>1355.300556761688</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2045.333029354114</v>
+        <v>2511.062984811828</v>
       </c>
       <c r="C11" t="n">
-        <v>1607.190556537537</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="D11" t="n">
-        <v>1607.190556537537</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E11" t="n">
-        <v>1173.415811695832</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F11" t="n">
         <v>775.368552737199</v>
       </c>
       <c r="G11" t="n">
-        <v>373.9707213604629</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H11" t="n">
-        <v>84.84056680367917</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I11" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J11" t="n">
         <v>519.6784648837371</v>
@@ -5053,40 +5053,40 @@
         <v>1354.028756841915</v>
       </c>
       <c r="N11" t="n">
-        <v>1697.046479425604</v>
+        <v>2398.773002548303</v>
       </c>
       <c r="O11" t="n">
-        <v>2677.22614599591</v>
+        <v>3378.952669118609</v>
       </c>
       <c r="P11" t="n">
-        <v>3505.536020829307</v>
+        <v>4207.262543952005</v>
       </c>
       <c r="Q11" t="n">
-        <v>4052.034806787902</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R11" t="n">
-        <v>4221.188871540959</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S11" t="n">
-        <v>4137.536997724796</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T11" t="n">
-        <v>3917.469770597834</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="U11" t="n">
-        <v>3658.247467914851</v>
+        <v>3658.247467914853</v>
       </c>
       <c r="V11" t="n">
-        <v>3295.630517848677</v>
+        <v>3658.247467914853</v>
       </c>
       <c r="W11" t="n">
-        <v>2890.775063259711</v>
+        <v>3253.392013325886</v>
       </c>
       <c r="X11" t="n">
-        <v>2471.632599839022</v>
+        <v>2834.249549905197</v>
       </c>
       <c r="Y11" t="n">
-        <v>2471.632599839022</v>
+        <v>2834.249549905197</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>590.5955224221119</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C12" t="n">
-        <v>484.1390612587542</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D12" t="n">
         <v>389.0487724053075</v>
@@ -5108,34 +5108,34 @@
         <v>294.9283577322612</v>
       </c>
       <c r="F12" t="n">
-        <v>211.5445193484228</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G12" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H12" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I12" t="n">
         <v>110.4874505912768</v>
       </c>
       <c r="J12" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K12" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L12" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="N12" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="O12" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="P12" t="n">
         <v>1089.751822183213</v>
@@ -5159,13 +5159,13 @@
         <v>1178.57539275058</v>
       </c>
       <c r="W12" t="n">
-        <v>993.2526384837743</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X12" t="n">
-        <v>838.3852027226543</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y12" t="n">
-        <v>711.899423501875</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>772.4997935538031</v>
+        <v>953.1589835504346</v>
       </c>
       <c r="C13" t="n">
-        <v>599.938082037028</v>
+        <v>780.5972720336596</v>
       </c>
       <c r="D13" t="n">
-        <v>489.6929550040131</v>
+        <v>614.7192792351823</v>
       </c>
       <c r="E13" t="n">
-        <v>489.6929550040131</v>
+        <v>444.9612754859195</v>
       </c>
       <c r="F13" t="n">
-        <v>312.9859009657693</v>
+        <v>268.2542214476757</v>
       </c>
       <c r="G13" t="n">
-        <v>312.9859009657693</v>
+        <v>102.6629464735034</v>
       </c>
       <c r="H13" t="n">
-        <v>173.0837266561438</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I13" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J13" t="n">
-        <v>171.003462595509</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K13" t="n">
         <v>445.7619171666447</v>
@@ -5223,28 +5223,28 @@
         <v>2701.083387333619</v>
       </c>
       <c r="R13" t="n">
-        <v>2679.665566038991</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S13" t="n">
-        <v>2520.424197336987</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="T13" t="n">
-        <v>2274.544750915442</v>
+        <v>2455.203940912074</v>
       </c>
       <c r="U13" t="n">
-        <v>1996.111750168548</v>
+        <v>2176.770940165179</v>
       </c>
       <c r="V13" t="n">
-        <v>1709.156242038978</v>
+        <v>1889.81543203561</v>
       </c>
       <c r="W13" t="n">
-        <v>1437.12983762527</v>
+        <v>1617.789027621901</v>
       </c>
       <c r="X13" t="n">
-        <v>1191.738082958682</v>
+        <v>1372.397272955314</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.3184122727903</v>
+        <v>1144.977602269422</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2199.988309279875</v>
+        <v>2510.646195438968</v>
       </c>
       <c r="C14" t="n">
-        <v>1761.845836463298</v>
+        <v>2072.503722622392</v>
       </c>
       <c r="D14" t="n">
-        <v>1325.936051637743</v>
+        <v>1636.593937796836</v>
       </c>
       <c r="E14" t="n">
-        <v>892.1613067960379</v>
+        <v>1202.819192955131</v>
       </c>
       <c r="F14" t="n">
-        <v>464.2938772052457</v>
+        <v>774.9517633643391</v>
       </c>
       <c r="G14" t="n">
-        <v>84.42377743081917</v>
+        <v>373.5539319876029</v>
       </c>
       <c r="H14" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I14" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J14" t="n">
-        <v>519.6784648837371</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="K14" t="n">
-        <v>1354.028756841915</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="L14" t="n">
-        <v>1354.028756841915</v>
+        <v>154.0567739714255</v>
       </c>
       <c r="M14" t="n">
-        <v>1354.028756841915</v>
+        <v>1198.801019677813</v>
       </c>
       <c r="N14" t="n">
-        <v>1697.046479425604</v>
+        <v>2243.545265384201</v>
       </c>
       <c r="O14" t="n">
-        <v>2677.22614599591</v>
+        <v>3223.724931954507</v>
       </c>
       <c r="P14" t="n">
-        <v>3505.536020829307</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="Q14" t="n">
-        <v>4052.034806787902</v>
+        <v>4052.034806787904</v>
       </c>
       <c r="R14" t="n">
-        <v>4221.188871540959</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S14" t="n">
-        <v>4221.188871540959</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T14" t="n">
-        <v>4221.188871540959</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U14" t="n">
-        <v>4221.188871540959</v>
+        <v>3961.966568857977</v>
       </c>
       <c r="V14" t="n">
-        <v>3858.571921474785</v>
+        <v>3599.349618791804</v>
       </c>
       <c r="W14" t="n">
-        <v>3453.716466885819</v>
+        <v>3194.494164202837</v>
       </c>
       <c r="X14" t="n">
-        <v>3034.574003465129</v>
+        <v>2918.932319139315</v>
       </c>
       <c r="Y14" t="n">
-        <v>2626.287879764783</v>
+        <v>2510.646195438968</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>590.5955224221119</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C15" t="n">
-        <v>484.1390612587542</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D15" t="n">
         <v>389.0487724053075</v>
@@ -5345,34 +5345,34 @@
         <v>294.9283577322612</v>
       </c>
       <c r="F15" t="n">
-        <v>211.5445193484228</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G15" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H15" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I15" t="n">
         <v>110.4874505912768</v>
       </c>
       <c r="J15" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K15" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L15" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M15" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="N15" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="O15" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="P15" t="n">
         <v>1089.751822183213</v>
@@ -5396,13 +5396,13 @@
         <v>1178.57539275058</v>
       </c>
       <c r="W15" t="n">
-        <v>993.2526384837743</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X15" t="n">
-        <v>838.3852027226543</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y15" t="n">
-        <v>711.899423501875</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>793.9176148484312</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C16" t="n">
-        <v>621.3559033316561</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D16" t="n">
-        <v>455.4779105331788</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E16" t="n">
-        <v>285.7199067839161</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F16" t="n">
-        <v>109.0128527456723</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G16" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H16" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I16" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J16" t="n">
-        <v>171.003462595509</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K16" t="n">
         <v>445.7619171666447</v>
@@ -5463,25 +5463,25 @@
         <v>2701.083387333619</v>
       </c>
       <c r="S16" t="n">
-        <v>2541.842018631615</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T16" t="n">
-        <v>2295.96257221007</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U16" t="n">
-        <v>2017.529571463176</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V16" t="n">
-        <v>1730.574063333606</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W16" t="n">
-        <v>1458.547658919898</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X16" t="n">
-        <v>1213.15590425331</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.7362335674184</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5524,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5542,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>750.3393363912985</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>584.4613435928212</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
         <v>584.4613435928212</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5758,10 +5758,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5779,22 +5779,22 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136696</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1926.156830648849</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1654.13042623514</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1408.738671568553</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1181.319000882661</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,28 +5977,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>811.7546776883914</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>645.8766848899141</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>645.8766848899141</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6472,19 +6472,19 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.146432354979</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C31" t="n">
-        <v>884.5847208382039</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D31" t="n">
-        <v>718.7067280397266</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E31" t="n">
-        <v>548.9487242904638</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F31" t="n">
-        <v>372.24167025222</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G31" t="n">
-        <v>206.6503952780477</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2674.992180466348</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2150.679733297909</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X31" t="n">
-        <v>1476.384721759858</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1248.965051073966</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6940,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>3137.402081918264</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4117.581748488571</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4945.891623321967</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D37" t="n">
-        <v>677.2880215932364</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E37" t="n">
-        <v>507.5300178439736</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
         <v>330.8229638057298</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2594.704009018975</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.271008272081</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1794.065400664252</v>
+        <v>1788.15808541334</v>
       </c>
       <c r="C41" t="n">
-        <v>1355.922927847676</v>
+        <v>1350.015612596763</v>
       </c>
       <c r="D41" t="n">
-        <v>920.0131430221202</v>
+        <v>914.1058277712076</v>
       </c>
       <c r="E41" t="n">
-        <v>486.2383981804153</v>
+        <v>914.1058277712076</v>
       </c>
       <c r="F41" t="n">
         <v>486.2383981804153</v>
       </c>
       <c r="G41" t="n">
-        <v>84.84056680367917</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="H41" t="n">
-        <v>84.84056680367917</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I41" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J41" t="n">
         <v>519.6784648837371</v>
@@ -7417,46 +7417,46 @@
         <v>1354.028756841915</v>
       </c>
       <c r="L41" t="n">
-        <v>1354.028756841915</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M41" t="n">
-        <v>1354.028756841915</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N41" t="n">
-        <v>1697.046479425604</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O41" t="n">
-        <v>2677.22614599591</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P41" t="n">
-        <v>3505.536020829307</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q41" t="n">
-        <v>4052.034806787902</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R41" t="n">
-        <v>4221.188871540959</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S41" t="n">
-        <v>4137.536997724796</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T41" t="n">
-        <v>4074.48826560832</v>
+        <v>4068.580950357407</v>
       </c>
       <c r="U41" t="n">
-        <v>3815.265962925337</v>
+        <v>3809.358647674424</v>
       </c>
       <c r="V41" t="n">
-        <v>3452.649012859163</v>
+        <v>3446.74169760825</v>
       </c>
       <c r="W41" t="n">
-        <v>3047.793558270196</v>
+        <v>3041.886243019283</v>
       </c>
       <c r="X41" t="n">
-        <v>2628.651094849507</v>
+        <v>2622.743779598594</v>
       </c>
       <c r="Y41" t="n">
-        <v>2220.36497114916</v>
+        <v>2214.457655898248</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>590.5955224221119</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C42" t="n">
-        <v>484.1390612587542</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D42" t="n">
         <v>389.0487724053075</v>
@@ -7478,19 +7478,19 @@
         <v>294.9283577322612</v>
       </c>
       <c r="F42" t="n">
-        <v>211.5445193484228</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G42" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H42" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I42" t="n">
         <v>110.4874505912768</v>
       </c>
       <c r="J42" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K42" t="n">
         <v>1089.751822183213</v>
@@ -7529,13 +7529,13 @@
         <v>1178.57539275058</v>
       </c>
       <c r="W42" t="n">
-        <v>993.2526384837743</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X42" t="n">
-        <v>838.3852027226543</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y42" t="n">
-        <v>711.899423501875</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2683.587422250041</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C43" t="n">
-        <v>2511.025710733265</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D43" t="n">
-        <v>2345.147717934788</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E43" t="n">
-        <v>2175.389714185525</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F43" t="n">
-        <v>1998.682660147281</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G43" t="n">
-        <v>1833.091385173109</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H43" t="n">
-        <v>1693.189210863484</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I43" t="n">
-        <v>1604.529261638159</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J43" t="n">
-        <v>1691.108946802849</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K43" t="n">
-        <v>1965.867401373984</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L43" t="n">
-        <v>2384.077283141945</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M43" t="n">
-        <v>2843.561150322858</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N43" t="n">
-        <v>3285.819953480503</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O43" t="n">
-        <v>3705.489202706284</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P43" t="n">
-        <v>4052.996096676626</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q43" t="n">
-        <v>4221.188871540959</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R43" t="n">
-        <v>4221.188871540959</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S43" t="n">
-        <v>4221.188871540959</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T43" t="n">
-        <v>4185.632379611679</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U43" t="n">
-        <v>3907.199378864785</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V43" t="n">
-        <v>3620.243870735215</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W43" t="n">
-        <v>3348.217466321507</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X43" t="n">
-        <v>3102.825711654919</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y43" t="n">
-        <v>2875.406040969028</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2510.646195438968</v>
+        <v>2511.062984811828</v>
       </c>
       <c r="C44" t="n">
-        <v>2072.503722622392</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="D44" t="n">
-        <v>1636.593937796836</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E44" t="n">
-        <v>1202.819192955131</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F44" t="n">
-        <v>774.9517633643391</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G44" t="n">
-        <v>373.5539319876029</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H44" t="n">
-        <v>84.42377743081917</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I44" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J44" t="n">
         <v>519.6784648837371</v>
       </c>
       <c r="K44" t="n">
-        <v>519.6784648837371</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L44" t="n">
-        <v>1303.390505294788</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M44" t="n">
-        <v>2348.134751001176</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N44" t="n">
-        <v>3392.878996707563</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O44" t="n">
-        <v>3392.878996707563</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P44" t="n">
-        <v>4221.188871540959</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q44" t="n">
-        <v>4221.188871540959</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R44" t="n">
-        <v>4221.188871540959</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S44" t="n">
-        <v>4137.536997724796</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T44" t="n">
-        <v>3917.469770597834</v>
+        <v>4001.121644413999</v>
       </c>
       <c r="U44" t="n">
-        <v>3697.261063514798</v>
+        <v>3741.899341731016</v>
       </c>
       <c r="V44" t="n">
-        <v>3334.644113448624</v>
+        <v>3379.282391664842</v>
       </c>
       <c r="W44" t="n">
-        <v>2929.788658859658</v>
+        <v>2974.426937075876</v>
       </c>
       <c r="X44" t="n">
-        <v>2510.646195438968</v>
+        <v>2937.362555296736</v>
       </c>
       <c r="Y44" t="n">
-        <v>2510.646195438968</v>
+        <v>2937.362555296736</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>590.5955224221119</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C45" t="n">
-        <v>484.1390612587542</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D45" t="n">
         <v>389.0487724053075</v>
@@ -7715,19 +7715,19 @@
         <v>294.9283577322612</v>
       </c>
       <c r="F45" t="n">
-        <v>211.5445193484228</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G45" t="n">
-        <v>126.1594296146067</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H45" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I45" t="n">
         <v>110.4874505912768</v>
       </c>
       <c r="J45" t="n">
-        <v>435.0457755574891</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K45" t="n">
         <v>1089.751822183213</v>
@@ -7766,13 +7766,13 @@
         <v>1178.57539275058</v>
       </c>
       <c r="W45" t="n">
-        <v>993.2526384837743</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X45" t="n">
-        <v>838.3852027226543</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y45" t="n">
-        <v>711.899423501875</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>986.7748840044567</v>
+        <v>931.7411622558066</v>
       </c>
       <c r="C46" t="n">
-        <v>814.2131724876816</v>
+        <v>759.1794507390315</v>
       </c>
       <c r="D46" t="n">
-        <v>648.3351796892043</v>
+        <v>593.3014579405542</v>
       </c>
       <c r="E46" t="n">
-        <v>478.5771759399416</v>
+        <v>423.5434541912915</v>
       </c>
       <c r="F46" t="n">
-        <v>478.5771759399416</v>
+        <v>246.8364001530477</v>
       </c>
       <c r="G46" t="n">
-        <v>312.9859009657693</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H46" t="n">
-        <v>173.0837266561438</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I46" t="n">
-        <v>84.42377743081917</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J46" t="n">
-        <v>171.003462595509</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K46" t="n">
         <v>445.7619171666447</v>
@@ -7830,28 +7830,28 @@
         <v>2701.083387333619</v>
       </c>
       <c r="R46" t="n">
-        <v>2701.083387333619</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="S46" t="n">
-        <v>2701.083387333619</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="T46" t="n">
-        <v>2488.819841366096</v>
+        <v>2433.786119617446</v>
       </c>
       <c r="U46" t="n">
-        <v>2210.386840619201</v>
+        <v>2155.353118870551</v>
       </c>
       <c r="V46" t="n">
-        <v>1923.431332489632</v>
+        <v>1868.397610740981</v>
       </c>
       <c r="W46" t="n">
-        <v>1651.404928075923</v>
+        <v>1596.371206327273</v>
       </c>
       <c r="X46" t="n">
-        <v>1406.013173409336</v>
+        <v>1350.979451660686</v>
       </c>
       <c r="Y46" t="n">
-        <v>1178.593502723444</v>
+        <v>1123.559780974794</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8221,7 +8221,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>346.4825480643326</v>
+        <v>346.4825480643344</v>
       </c>
       <c r="O8" t="n">
         <v>990.0804712831379</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>346.4825480643326</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8710,10 +8710,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>14.06699756460148</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>70.33636014202656</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N14" t="n">
-        <v>346.4825480643326</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8947,7 +8947,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9406,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,19 +10120,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10603,10 +10603,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>168.8387779969844</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>346.4825480643326</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>791.6283236475265</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M44" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>102.0818753376237</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>29.52196892583731</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55.07653710780777</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>21.31245428628648</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23551,7 +23551,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>142.1448121735956</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>131.2385495991671</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>35.15749310933364</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>175.9682474305295</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>26.97216184894944</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>122.9308428424053</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>44.28436272291295</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>212.1323395461473</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>155.448310060381</v>
+        <v>149.6000679619756</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>38.623459643947</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2573008251341</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.146865729424462</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>33.27974144948155</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>596538.4675973214</v>
+        <v>596538.4675973217</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>596538.4675973214</v>
+        <v>596538.4675973216</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>686252.0272599394</v>
+        <v>686252.0272599391</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>686252.0272599392</v>
+        <v>686252.0272599391</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>596538.4675973214</v>
+        <v>596538.4675973215</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>596538.4675973215</v>
+        <v>596538.4675973217</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308284.7089369849</v>
+        <v>308284.7089369848</v>
       </c>
       <c r="C2" t="n">
-        <v>308284.7089369847</v>
+        <v>308284.7089369848</v>
       </c>
       <c r="D2" t="n">
         <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
-        <v>263339.4320953437</v>
+        <v>263339.4320953438</v>
       </c>
       <c r="F2" t="n">
-        <v>263339.4320953437</v>
+        <v>263339.4320953438</v>
       </c>
       <c r="G2" t="n">
-        <v>302943.1108789775</v>
+        <v>302943.1108789776</v>
       </c>
       <c r="H2" t="n">
         <v>302943.1108789776</v>
@@ -26352,10 +26352,10 @@
         <v>302943.1108789775</v>
       </c>
       <c r="O2" t="n">
-        <v>263339.4320953437</v>
+        <v>263339.4320953438</v>
       </c>
       <c r="P2" t="n">
-        <v>263339.4320953437</v>
+        <v>263339.4320953438</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>120456.7261630934</v>
+        <v>120456.7261630936</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61110.89210613199</v>
+        <v>61110.8921061319</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>98144.13701620407</v>
+        <v>98144.13701620419</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>103725.390980546</v>
+        <v>103725.3909805459</v>
       </c>
       <c r="E4" t="n">
-        <v>59110.98363531847</v>
+        <v>59110.98363531849</v>
       </c>
       <c r="F4" t="n">
-        <v>59110.98363531847</v>
+        <v>59110.98363531848</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="H4" t="n">
         <v>68000.69828933282</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="L4" t="n">
         <v>68000.69828933281</v>
-      </c>
-      <c r="L4" t="n">
-        <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
         <v>68000.69828933279</v>
@@ -26456,7 +26456,7 @@
         <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
-        <v>59110.98363531847</v>
+        <v>59110.98363531849</v>
       </c>
       <c r="P4" t="n">
         <v>59110.98363531849</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>97789.67084742256</v>
+        <v>97789.67084742259</v>
       </c>
       <c r="E5" t="n">
-        <v>64162.07084742257</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="F5" t="n">
-        <v>64162.07084742257</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26505,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>64162.07084742257</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="P5" t="n">
-        <v>64162.07084742257</v>
+        <v>64162.0708474226</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146264.1554614915</v>
+        <v>-146264.1554614916</v>
       </c>
       <c r="C6" t="n">
-        <v>77435.54312255324</v>
+        <v>77435.54312255334</v>
       </c>
       <c r="D6" t="n">
-        <v>-13687.07905407721</v>
+        <v>-13687.07905407732</v>
       </c>
       <c r="E6" t="n">
-        <v>140066.3776126027</v>
+        <v>139870.9633654651</v>
       </c>
       <c r="F6" t="n">
-        <v>140066.3776126027</v>
+        <v>139870.9633654651</v>
       </c>
       <c r="G6" t="n">
-        <v>96113.2818777202</v>
+        <v>96090.05753833771</v>
       </c>
       <c r="H6" t="n">
-        <v>157224.1739838522</v>
+        <v>157200.9496444696</v>
       </c>
       <c r="I6" t="n">
-        <v>157224.1739838522</v>
+        <v>157200.9496444696</v>
       </c>
       <c r="J6" t="n">
-        <v>-17427.17473385396</v>
+        <v>-17450.39907323658</v>
       </c>
       <c r="K6" t="n">
-        <v>157224.1739838522</v>
+        <v>157200.9496444696</v>
       </c>
       <c r="L6" t="n">
-        <v>59080.03696764814</v>
+        <v>59056.81262826538</v>
       </c>
       <c r="M6" t="n">
-        <v>157224.1739838522</v>
+        <v>157200.9496444696</v>
       </c>
       <c r="N6" t="n">
-        <v>157224.1739838522</v>
+        <v>157200.9496444696</v>
       </c>
       <c r="O6" t="n">
-        <v>140066.3776126026</v>
+        <v>139870.9633654651</v>
       </c>
       <c r="P6" t="n">
-        <v>140066.3776126027</v>
+        <v>139870.9633654651</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
         <v>1055.29721788524</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>387.7820112773827</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>222.9632854995056</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>387.7820112773827</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>387.7820112773827</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>222.9632854995056</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>86.14502017843057</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>289.9811395907774</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>84.63380825304888</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.3357961106037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>229.514940522278</v>
       </c>
       <c r="F5" t="n">
-        <v>370.254871502204</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>37.4650948639997</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>26.3357961106037</v>
       </c>
     </row>
     <row r="8">
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>249.6550581448134</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>98.83785721429436</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>90.9202154624958</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158822</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -35184,7 +35184,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>346.4825480643326</v>
+        <v>346.4825480643344</v>
       </c>
       <c r="O8" t="n">
         <v>990.0804712831377</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35421,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>346.4825480643326</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>14.06699756460148</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>70.33636014202656</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N14" t="n">
-        <v>346.4825480643326</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35667,7 +35667,7 @@
         <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697544</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36126,13 +36126,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36840,19 +36840,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>168.8387779969844</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37785,25 +37785,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>346.4825480643326</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512943</v>
@@ -38019,25 +38019,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>791.6283236475265</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M44" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
